--- a/data-raw/Concept_id List.xlsx
+++ b/data-raw/Concept_id List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nsl114_newcastle_ac_uk/Documents/RA_FMS/FMS_2/Projects/harmonygeneticsubtype/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A65E32535100D4CB5BEFFDB93B9100F4B3B890C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept_IDs" sheetId="1" r:id="rId1"/>
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,32 +309,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,19 +608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="107.33203125" customWidth="1"/>
     <col min="6" max="6" width="48.44140625" customWidth="1"/>
   </cols>
@@ -683,24 +677,24 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>3036903</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5">
         <v>35977015</v>
       </c>
@@ -715,84 +709,84 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>3011913</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9">
         <v>3013321</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9">
         <v>3016815</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="9">
         <v>3028956</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9">
         <v>35977026</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5">
         <v>46235651</v>
       </c>
@@ -802,44 +796,44 @@
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>2000109034</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9">
         <v>3012425</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5">
         <v>37030733</v>
       </c>
@@ -849,29 +843,29 @@
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>3002279</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="5">
         <v>37021664</v>
       </c>
@@ -881,74 +875,74 @@
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>2000000263</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9">
         <v>2000000269</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9">
         <v>3022443</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9">
         <v>3037009</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5">
         <v>36017933</v>
       </c>
@@ -958,29 +952,29 @@
       <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>2000108068</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5">
         <v>3000296</v>
       </c>
@@ -990,7 +984,7 @@
       <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1007,7 +1001,7 @@
       <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1024,29 +1018,29 @@
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>2000000462</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5">
         <v>36660734</v>
       </c>
@@ -1056,7 +1050,7 @@
       <c r="D28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1073,29 +1067,29 @@
       <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>2000000463</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5">
         <v>36660734</v>
       </c>
@@ -1105,29 +1099,29 @@
       <c r="D31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>2000000153</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="5">
         <v>45877994</v>
       </c>
@@ -1137,29 +1131,29 @@
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>4082461</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="5">
         <v>4173963</v>
       </c>
@@ -1169,7 +1163,7 @@
       <c r="D35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1186,39 +1180,39 @@
       <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1239,6 +1233,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E00E1D7EE56B045BC1FF3AC311E1094" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ede9d5be2dfb0bf26855011b19caca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="745c9fd5-8641-409f-b0d9-8a7efce75a77" xmlns:ns4="40449a33-49de-434f-8b6e-d5ee7c6e18a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1548be19f3561b20bcc95f506d4d6cc" ns3:_="" ns4:_="">
     <xsd:import namespace="745c9fd5-8641-409f-b0d9-8a7efce75a77"/>
@@ -1461,15 +1464,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1477,6 +1471,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE25462-4956-4D6F-8BA5-57F31C6D103E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{271436E3-AD44-425C-8C51-E79274E6FB39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1491,14 +1493,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE25462-4956-4D6F-8BA5-57F31C6D103E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
